--- a/plan/PPT学习情况汇总.xlsx
+++ b/plan/PPT学习情况汇总.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAD1ECF-76CF-48C2-BA8E-9821194D7B3E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2251FF34-4F8B-4243-9B47-AF0CE5A91F9B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>截止日期</t>
   </si>
@@ -350,10 +350,6 @@
   </si>
   <si>
     <t>吕建宏</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>万门大学PPT视频，周末学完</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
@@ -1550,13 +1546,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1759,7 +1755,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>103507</xdr:rowOff>
     </xdr:to>
@@ -1916,7 +1912,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8851900" y="1019786"/>
+          <a:off x="8794750" y="1019786"/>
           <a:ext cx="5264150" cy="3683296"/>
           <a:chOff x="7953375" y="1086461"/>
           <a:chExt cx="5721039" cy="3683296"/>
@@ -2121,7 +2117,9 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="姓名"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="学习情况"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="截止日期" dataCellStyle="日期"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="截止日期" dataCellStyle="日期">
+      <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="优先级"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="状态"/>
   </tableColumns>
@@ -2428,7 +2426,7 @@
   <dimension ref="B1:R15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2436,7 +2434,7 @@
     <col min="1" max="1" width="16.88671875" customWidth="1"/>
     <col min="2" max="2" width="14.44140625" customWidth="1"/>
     <col min="3" max="3" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
     <col min="5" max="6" width="12.77734375" customWidth="1"/>
     <col min="7" max="7" width="2.6640625" customWidth="1"/>
     <col min="8" max="8" width="62.33203125" customWidth="1"/>
@@ -2512,14 +2510,14 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="9">
-        <f ca="1">TODAY()-2</f>
-        <v>43540</v>
+        <f ca="1">TODAY()</f>
+        <v>43549</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
@@ -2541,16 +2539,17 @@
     </row>
     <row r="5" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" s="9">
-        <v>43555</v>
+        <f t="shared" ref="D5:D14" ca="1" si="0">TODAY()</f>
+        <v>43549</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
         <v>3</v>
@@ -2570,16 +2569,17 @@
     </row>
     <row r="6" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="9">
-        <v>43555</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43549</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
         <v>3</v>
@@ -2599,16 +2599,17 @@
     </row>
     <row r="7" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
       <c r="D7" s="9">
-        <v>43555</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43549</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
         <v>3</v>
@@ -2618,16 +2619,17 @@
     </row>
     <row r="8" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="9">
-        <v>43555</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43549</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
         <v>3</v>
@@ -2637,16 +2639,17 @@
     </row>
     <row r="9" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="9">
-        <v>43555</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43549</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
         <v>3</v>
@@ -2655,16 +2658,17 @@
     </row>
     <row r="10" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="9">
-        <v>43555</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43549</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
         <v>3</v>
@@ -2673,16 +2677,17 @@
     </row>
     <row r="11" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="9">
-        <v>43555</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43549</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
         <v>3</v>
@@ -2691,16 +2696,17 @@
     </row>
     <row r="12" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="9">
-        <v>43555</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43549</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
         <v>3</v>
@@ -2709,16 +2715,17 @@
     </row>
     <row r="13" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="9">
-        <v>43555</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43549</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
         <v>3</v>
@@ -2726,16 +2733,17 @@
     </row>
     <row r="14" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>43549</v>
+      </c>
+      <c r="E14" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="9">
-        <v>43555</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
       </c>
       <c r="F14" t="s">
         <v>3</v>
@@ -2743,16 +2751,17 @@
     </row>
     <row r="15" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="9">
-        <v>43555</v>
+        <f ca="1">TODAY()</f>
+        <v>43549</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
         <v>3</v>
@@ -2833,7 +2842,7 @@
     <row r="3" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <f t="array" aca="1" ref="A3" ca="1">SUM(IF(ToDoList[截止日期]&gt;=(TODAY()-WEEKDAY(TODAY(),2)+1),IF(ToDoList[截止日期]&lt;(TODAY()-WEEKDAY(TODAY(),2)+1+7),1,0),0))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B3" s="11">
         <f ca="1">COUNTIF(ToDoList[截止日期],TODAY()+1)</f>
@@ -2841,7 +2850,7 @@
       </c>
       <c r="C3" s="12">
         <f ca="1">COUNTIF(ToDoList[截止日期],TODAY())</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
